--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3400.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3400.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.795159777719276</v>
+        <v>1.492611169815063</v>
       </c>
       <c r="B1">
-        <v>1.982972445975337</v>
+        <v>6.425615787506104</v>
       </c>
       <c r="C1">
-        <v>2.116466355385688</v>
+        <v>3.518653392791748</v>
       </c>
       <c r="D1">
-        <v>2.872498574239654</v>
+        <v>1.571729183197021</v>
       </c>
       <c r="E1">
-        <v>4.134289815890773</v>
+        <v>1.107196927070618</v>
       </c>
     </row>
   </sheetData>
